--- a/Hello Data/DirtyData.xlsx
+++ b/Hello Data/DirtyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demauro.a\OneDrive - Procter and Gamble\Desktop\OneDrive - Procter and Gamble\Documents\Documents\Personal\Documents\Ricerca\Big Data\Books\Manual PACKT\Chapter 2\Data cleaning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mebarek\Downloads\Data-Analytics-KNIME\Hello Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E046B4E-FE9F-4459-A66B-B90839175222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF383A1A-7668-4971-9CEE-D7998971639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A009A3D-8CB4-4800-90A3-88AF41906974}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A009A3D-8CB4-4800-90A3-88AF41906974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -300,7 +300,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -325,10 +325,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,17 +645,22 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -682,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -708,14 +712,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -731,14 +735,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
@@ -754,14 +758,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
@@ -777,14 +781,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
@@ -800,14 +804,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
@@ -826,14 +830,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
@@ -849,14 +853,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
@@ -875,14 +879,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
@@ -901,14 +905,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>80</v>
       </c>
       <c r="D11" t="s">
@@ -924,7 +928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -950,14 +954,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
@@ -976,7 +980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1028,14 +1032,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
       <c r="D16" t="s">
@@ -1051,7 +1055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1100,14 +1104,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19" t="s">
@@ -1126,7 +1130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1152,14 +1156,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>67</v>
       </c>
       <c r="D21" t="s">
@@ -1184,15 +1188,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A0FC4119CEFEE47BF9964D6DADC2B10" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ab10b3d10b937dc527f9eb3cd994382">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dbcabf3e-5bbb-425a-945b-1793fa829098" xmlns:ns4="74236018-e0ee-4ad1-b75a-39252abcae1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8aa998094aa9d5915bee288ef12b1b06" ns3:_="" ns4:_="">
     <xsd:import namespace="dbcabf3e-5bbb-425a-945b-1793fa829098"/>
@@ -1415,6 +1410,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1422,14 +1426,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0DFB44D-74FC-40EB-BDCB-5A85C8B875FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AD2090B-3554-40D2-98C4-019E39A8CB91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1444,6 +1440,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0DFB44D-74FC-40EB-BDCB-5A85C8B875FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
